--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1679361.735381712</v>
+        <v>1757955.720377984</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004885</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.6830760742</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6578232.212252911</v>
+        <v>7007724.228374946</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>195.4327370168331</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>49.53842828501017</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>156.395074584551</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>218.775754413495</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -908,13 +910,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>337.1730081336909</v>
+        <v>205.0873641277763</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1065,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>149.9434208937364</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>118.9693540944499</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>223.9133497557906</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1139,13 +1141,13 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>80.11775047948045</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>57.54803063489609</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1300,7 +1302,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>7.098427391118505</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1354,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C11" t="n">
-        <v>236.6048362028191</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1436,7 +1438,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
@@ -1534,19 +1536,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>58.33552926585362</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>111.3190970511839</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1609,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>314.6596914499</v>
       </c>
       <c r="D14" t="n">
-        <v>154.1977157631488</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>59.70406721933355</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>132.4910469690646</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1895,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2011,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>11.07215425001585</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>221.5389288874897</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>111.1800590294273</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>75.36502742721693</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,13 +2715,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.13287386842549</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>135.7468035496482</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2959,13 +2961,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>154.5259717924262</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,19 +3003,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>232.9393695186478</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>19.559632213204</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>60.15466974967032</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>112.2192622328896</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>92.01098438110758</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3515,7 +3517,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -3569,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3661,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>156.9928587619778</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.358305806923</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>238.0472340876699</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>244.2672248845549</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.21714144772695</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3952,19 +3954,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>71.78780711257758</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>266.7528338010359</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4034,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>19.559632213204</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>187.21057685784</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4198,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1446.246066841293</v>
+        <v>966.965586482338</v>
       </c>
       <c r="C2" t="n">
-        <v>1423.385740894997</v>
+        <v>540.0648564956382</v>
       </c>
       <c r="D2" t="n">
-        <v>1404.133524120401</v>
+        <v>520.8126397210425</v>
       </c>
       <c r="E2" t="n">
-        <v>1206.726719052893</v>
+        <v>94.83569986890006</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>116.829168004879</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>667.4947029893171</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>667.4947029893171</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>667.4947029893171</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>667.4947029893171</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
         <v>1768.825772958194</v>
@@ -4358,22 +4360,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>1867.421837588626</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W2" t="n">
-        <v>1471.030487888973</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X2" t="n">
-        <v>1463.350893097124</v>
+        <v>984.0704127381697</v>
       </c>
       <c r="Y2" t="n">
-        <v>1462.054027092418</v>
+        <v>982.7735467334641</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
         <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825398</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825398</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4510,13 +4512,13 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2066.936429649699</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2066.936429649699</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="U4" t="n">
         <v>1786.751981150003</v>
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1235.878926328994</v>
+        <v>972.9074190595574</v>
       </c>
       <c r="C5" t="n">
-        <v>808.9781963422938</v>
+        <v>950.0470931132616</v>
       </c>
       <c r="D5" t="n">
-        <v>385.6855755272941</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>363.7490397155557</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>342.66526194536</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4604,13 +4606,13 @@
         <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>2003.98568150701</v>
+        <v>1607.594331807357</v>
       </c>
       <c r="X5" t="n">
-        <v>1996.306086715161</v>
+        <v>1195.874332975104</v>
       </c>
       <c r="Y5" t="n">
-        <v>1655.727290620524</v>
+        <v>988.7153793106834</v>
       </c>
     </row>
     <row r="6">
@@ -4650,22 +4652,22 @@
         <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>838.3748437825398</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>838.3748437825398</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825398</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.6538096079925</v>
+        <v>645.7643351504313</v>
       </c>
       <c r="C7" t="n">
-        <v>689.6812464869084</v>
+        <v>473.7917720293473</v>
       </c>
       <c r="D7" t="n">
-        <v>526.3644736136791</v>
+        <v>310.474999156118</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1856.27959076592</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U7" t="n">
-        <v>1576.095142266224</v>
+        <v>1861.400839946408</v>
       </c>
       <c r="V7" t="n">
-        <v>1294.383674874253</v>
+        <v>1579.689372554437</v>
       </c>
       <c r="W7" t="n">
-        <v>1294.383674874253</v>
+        <v>1304.83696872695</v>
       </c>
       <c r="X7" t="n">
-        <v>1051.819778320058</v>
+        <v>1062.273072172755</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.819778320058</v>
+        <v>835.9303038624969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>427.7981182481856</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C8" t="n">
-        <v>404.9377923018898</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>385.6855755272941</v>
+        <v>1193.766383608102</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7490397155557</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>342.66526194536</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
         <v>342.3666035752127</v>
@@ -4802,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>957.7672188505812</v>
+        <v>116.829168004879</v>
       </c>
       <c r="L8" t="n">
-        <v>1508.432753835019</v>
+        <v>116.829168004879</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O8" t="n">
-        <v>2059.098288819458</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4832,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="W8" t="n">
-        <v>1471.030487888973</v>
+        <v>1664.703751417078</v>
       </c>
       <c r="X8" t="n">
-        <v>1059.31048905672</v>
+        <v>1252.983752584825</v>
       </c>
       <c r="Y8" t="n">
-        <v>653.9732190116105</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="9">
@@ -4884,7 +4886,7 @@
         <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
         <v>866.8612493132769</v>
@@ -4893,13 +4895,13 @@
         <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>1389.040378766978</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O9" t="n">
-        <v>1389.040378766978</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1013.836108326033</v>
+        <v>962.9877020259423</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>791.0151389048583</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>627.698366031629</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>461.4901601844825</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1811.43685720741</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U10" t="n">
-        <v>1531.252408707715</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="V10" t="n">
-        <v>1531.252408707715</v>
+        <v>1654.348842875753</v>
       </c>
       <c r="W10" t="n">
-        <v>1256.400004880228</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="X10" t="n">
-        <v>1013.836108326033</v>
+        <v>1379.496439048266</v>
       </c>
       <c r="Y10" t="n">
-        <v>1013.836108326033</v>
+        <v>1153.153670738008</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1484.858986948137</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>1245.864202904886</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>822.5715820898859</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>822.5715820898859</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>397.4474002792861</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>780.1904584722912</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>1515.667965162099</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>1515.667965162099</v>
+        <v>2018.08677664988</v>
       </c>
       <c r="N11" t="n">
-        <v>2316.109577559901</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.551189957705</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.551189957705</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957705</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2292.970335480043</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>1896.57898578039</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>1484.858986948137</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>1484.858986948137</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>865.123762894595</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="M12" t="n">
-        <v>1157.172064038804</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>1157.172064038804</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1157.172064038804</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>458.8962635273212</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C13" t="n">
-        <v>286.9237004062372</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>123.6069275330079</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>64.68215049679215</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>64.68215049679215</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68215049679215</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68215049679215</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2198.056564597094</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1954.717216822994</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1674.532768323298</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V13" t="n">
-        <v>1392.821300931327</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W13" t="n">
-        <v>1117.96889710384</v>
+        <v>1425.821963957422</v>
       </c>
       <c r="X13" t="n">
-        <v>875.4050005496448</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="Y13" t="n">
-        <v>649.0622322393868</v>
+        <v>1183.258067403227</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>659.6733526114974</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>659.6733526114974</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>503.9180841638723</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>503.9180841638723</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>503.9180841638723</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>99.57902175332094</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>715.2263527642958</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>1515.667965162099</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>2316.109577559901</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>3116.551189957705</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>4217.987261371733</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3129.740230712748</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>2908.814659757381</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2292.970335480043</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>1896.57898578039</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>1484.858986948137</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1079.521716903027</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>655.1670770651317</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L15" t="n">
-        <v>655.1670770651317</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M15" t="n">
-        <v>655.1670770651317</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N15" t="n">
-        <v>655.1670770651317</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O15" t="n">
-        <v>1455.608689462935</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1699.037071618406</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="C16" t="n">
-        <v>1527.064508497322</v>
+        <v>867.4892357902974</v>
       </c>
       <c r="D16" t="n">
-        <v>1363.747735624093</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E16" t="n">
-        <v>1363.747735624093</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F16" t="n">
-        <v>1363.747735624093</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G16" t="n">
-        <v>1197.490765918325</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H16" t="n">
-        <v>1053.694497426479</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
-        <v>1053.694497426479</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>1111.185825650637</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>1337.713426856474</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>1692.402748150895</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>2083.588543121146</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>2461.080053997181</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>2816.508182676945</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>3107.107394598846</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>3234.107524839607</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>3234.107524839607</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>3063.972477358742</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>2820.633129584642</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="U16" t="n">
-        <v>2540.448681084946</v>
+        <v>1953.266910479596</v>
       </c>
       <c r="V16" t="n">
-        <v>2406.619340712154</v>
+        <v>1671.555443087625</v>
       </c>
       <c r="W16" t="n">
-        <v>2131.766936884667</v>
+        <v>1396.703039260138</v>
       </c>
       <c r="X16" t="n">
-        <v>1889.203040330472</v>
+        <v>1154.139142705943</v>
       </c>
       <c r="Y16" t="n">
-        <v>1889.203040330472</v>
+        <v>927.7963743956848</v>
       </c>
     </row>
     <row r="17">
@@ -5513,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5543,22 +5545,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>772.98449592559</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>772.98449592559</v>
       </c>
       <c r="M18" t="n">
-        <v>305.3113489363686</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N18" t="n">
-        <v>305.3113489363686</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>775.7107933313494</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C19" t="n">
-        <v>603.7382302102653</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D19" t="n">
-        <v>440.421457337036</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E19" t="n">
-        <v>440.421457337036</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2271.531746627022</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2271.531746627022</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>1991.347298127326</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.635830735355</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.783426907868</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.219530353673</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.8767620434151</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5734,19 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5759,19 +5761,19 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
         <v>5115.135670291427</v>
@@ -5838,13 +5840,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2119.408873334071</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>1036.530120513549</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>793.966223959354</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>516.5477476675582</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C25" t="n">
-        <v>516.5477476675582</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="D25" t="n">
-        <v>516.5477476675582</v>
+        <v>440.421457337036</v>
       </c>
       <c r="E25" t="n">
-        <v>516.5477476675582</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F25" t="n">
-        <v>344.6859734421186</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G25" t="n">
-        <v>178.4290037363507</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>178.4290037363507</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6190,7 +6192,7 @@
         <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6312,19 +6314,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>537.3606176598659</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="C28" t="n">
-        <v>365.3880545387819</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>202.0712816655526</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2276.520918729638</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2276.520918729638</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2033.181570955538</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1752.997122455842</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1471.285655063871</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1196.433251236384</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>953.8693546821894</v>
+        <v>848.3364291485279</v>
       </c>
       <c r="Y28" t="n">
-        <v>727.5265863719314</v>
+        <v>621.99366083827</v>
       </c>
     </row>
     <row r="29">
@@ -6467,16 +6469,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1715.81204584877</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M29" t="n">
-        <v>2720.098147267829</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N29" t="n">
-        <v>3696.34920575453</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O29" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
         <v>4541.493855905342</v>
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>424.597759447345</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>258.3895536001985</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6649,22 +6651,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U31" t="n">
-        <v>1586.910439808086</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V31" t="n">
-        <v>1586.910439808086</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W31" t="n">
-        <v>1312.058035980599</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X31" t="n">
-        <v>1312.058035980599</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y31" t="n">
-        <v>1085.715267670341</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="32">
@@ -6698,22 +6700,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P32" t="n">
         <v>4997.579335409525</v>
@@ -6786,16 +6788,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>739.6560874287652</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1828.971033901635</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1828.971033901635</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
         <v>1828.971033901635</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1033.268477064743</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1832.396244838396</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1550.684777446425</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1275.832373618938</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1033.268477064743</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>1033.268477064743</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>653.604840768015</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>481.632277646931</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>481.632277646931</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>315.4240717997845</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7123,22 +7125,22 @@
         <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>2019.640305074347</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="V37" t="n">
-        <v>2019.640305074347</v>
+        <v>1587.529878172021</v>
       </c>
       <c r="W37" t="n">
-        <v>1744.78790124686</v>
+        <v>1312.677474344533</v>
       </c>
       <c r="X37" t="n">
-        <v>1502.224004692665</v>
+        <v>1070.113577790339</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>843.7708094800807</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7184,16 +7186,16 @@
         <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7217,7 +7219,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7256,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>739.8561742104578</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C40" t="n">
-        <v>581.2775289963388</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D40" t="n">
-        <v>417.9607561231095</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>417.9607561231095</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>246.09898189767</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>246.09898189767</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7357,25 +7359,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2235.67712750613</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="U40" t="n">
-        <v>1955.492679006434</v>
+        <v>1825.090328421558</v>
       </c>
       <c r="V40" t="n">
-        <v>1673.781211614463</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.928807786976</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X40" t="n">
-        <v>1156.364911232781</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y40" t="n">
-        <v>930.0221429225235</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2170.315685371786</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1743.414955385085</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.122334570086</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1453947179433</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>469.0212129073435</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>64.68215049679215</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68215049679215</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K41" t="n">
-        <v>780.1904584722912</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L41" t="n">
-        <v>832.7826876461991</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>1633.224300044002</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N41" t="n">
-        <v>2433.665912441805</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839607</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>3234.107524839607</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>3234.107524839607</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V41" t="n">
-        <v>3234.107524839607</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>2987.372954249148</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>2575.652955416895</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2170.315685371786</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>655.1670770651317</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L42" t="n">
-        <v>1455.608689462935</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M42" t="n">
-        <v>1455.608689462935</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N42" t="n">
-        <v>1455.608689462935</v>
+        <v>1779.8768179202</v>
       </c>
       <c r="O42" t="n">
-        <v>1455.608689462935</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1147.863273021029</v>
+        <v>3906.615339060613</v>
       </c>
       <c r="C43" t="n">
-        <v>975.890709899945</v>
+        <v>3734.642775939529</v>
       </c>
       <c r="D43" t="n">
-        <v>812.5739370267157</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E43" t="n">
-        <v>646.3657311795693</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5039569541296</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G43" t="n">
-        <v>308.2469872483618</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H43" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T43" t="n">
-        <v>2001.75583013582</v>
+        <v>4760.507896175404</v>
       </c>
       <c r="U43" t="n">
-        <v>2001.75583013582</v>
+        <v>4480.323447675709</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.044362743849</v>
+        <v>4407.810511198358</v>
       </c>
       <c r="W43" t="n">
-        <v>1445.191958916362</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.628062362167</v>
+        <v>4132.95810737087</v>
       </c>
       <c r="Y43" t="n">
-        <v>1202.628062362167</v>
+        <v>3906.615339060613</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1923.25868135687</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1496.35795137017</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1496.35795137017</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1226.910644500437</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>801.7864626898374</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>99.57902175332094</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679215</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>780.1904584722912</v>
+        <v>811.7639428804554</v>
       </c>
       <c r="L44" t="n">
-        <v>1580.632070870094</v>
+        <v>1741.388990499732</v>
       </c>
       <c r="M44" t="n">
-        <v>2381.073683267897</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N44" t="n">
-        <v>3181.515295665699</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O44" t="n">
-        <v>3181.515295665699</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>3234.107524839607</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839607</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839607</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3234.107524839607</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>2754.827044480653</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V44" t="n">
-        <v>2754.827044480653</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W44" t="n">
-        <v>2754.827044480653</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X44" t="n">
-        <v>2343.1070456484</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y44" t="n">
-        <v>2343.1070456484</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344826</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="J45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="K45" t="n">
-        <v>64.68215049679215</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="L45" t="n">
-        <v>64.68215049679215</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="M45" t="n">
-        <v>272.4865562816963</v>
+        <v>4031.958421451902</v>
       </c>
       <c r="N45" t="n">
-        <v>1072.928168679499</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="O45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="P45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>995.6479141557066</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="C46" t="n">
-        <v>975.890709899945</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="D46" t="n">
-        <v>812.5739370267157</v>
+        <v>3571.3260030663</v>
       </c>
       <c r="E46" t="n">
-        <v>646.3657311795693</v>
+        <v>3405.117797219153</v>
       </c>
       <c r="F46" t="n">
-        <v>474.5039569541296</v>
+        <v>3233.256022993713</v>
       </c>
       <c r="G46" t="n">
-        <v>308.2469872483618</v>
+        <v>3066.999053287946</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>2923.2027847961</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679215</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R46" t="n">
-        <v>2245.09517790992</v>
+        <v>4956.808630636678</v>
       </c>
       <c r="S46" t="n">
-        <v>2074.960130429055</v>
+        <v>4786.673583155813</v>
       </c>
       <c r="T46" t="n">
-        <v>2074.960130429055</v>
+        <v>4543.334235381712</v>
       </c>
       <c r="U46" t="n">
-        <v>1794.77568192936</v>
+        <v>4354.232642596015</v>
       </c>
       <c r="V46" t="n">
-        <v>1513.064214537389</v>
+        <v>4072.521175204045</v>
       </c>
       <c r="W46" t="n">
-        <v>1238.211810709902</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="X46" t="n">
-        <v>995.6479141557066</v>
+        <v>3797.668771376558</v>
       </c>
       <c r="Y46" t="n">
-        <v>995.6479141557066</v>
+        <v>3571.3260030663</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.4815180266284</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8061,25 +8063,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>267.0107895760206</v>
+        <v>96.76900350898819</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>453.322231905261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>300.4142109955939</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>260.6609864990197</v>
+        <v>177.8131985346731</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8316,7 +8318,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>108.8261593358512</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
         <v>593.5074359500402</v>
@@ -8468,13 +8470,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>86.31943126580316</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,25 +8534,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>548.7966943283913</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>461.8305092169925</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>781.2186148465698</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1035.799731739446</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>845.9178405659259</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8774,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>831.0419679241314</v>
+        <v>749.1541615704315</v>
       </c>
       <c r="M12" t="n">
-        <v>318.0950644963775</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,25 +8929,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>326.6138366035045</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>251.9371478624388</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9018,16 +9020,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>443.7517418254018</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9173,16 +9175,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>625.182225377852</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>417.8918098719783</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>228.1560083209543</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9647,16 +9649,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>117.3609790173131</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>579.1176643018625</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10124,10 +10126,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10361,10 +10363,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10434,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>666.8880674041833</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10595,19 +10597,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>998.750394705596</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>420.03429863453</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>124.3756766890881</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,19 +10904,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>186.3697998820327</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11063,22 +11065,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>91.43550624465107</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>845.9178405659259</v>
+        <v>867.7084382103637</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11142,25 +11144,25 @@
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>831.0419679241314</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>70.51375583797689</v>
       </c>
       <c r="P42" t="n">
-        <v>443.7517418254018</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>754.6403563518451</v>
       </c>
       <c r="L44" t="n">
-        <v>846.8389236425247</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093336</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443479</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>90.69882562225956</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11381,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>233.0002206990998</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234435</v>
+        <v>1003.048909524251</v>
       </c>
       <c r="O45" t="n">
-        <v>831.698770932124</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C11" t="n">
-        <v>186.0268864840137</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>106.2105945228214</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>160.7847827380282</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23495,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>107.9720312369328</v>
       </c>
       <c r="D14" t="n">
-        <v>264.8619788437009</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>128.5602418056114</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>146.4033057489868</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,10 +23901,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.3615427560406</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>50.56495090172237</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>50.50354611506967</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -24382,7 +24384,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>23.40585514990985</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24619,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>40.43535331127309</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>15.61718469075893</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24889,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>44.44323449605093</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>150.6932052766691</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>38.61621282745647</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>52.37513777582056</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>185.3716196335912</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>13.25997872789537</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25597,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>2.858720208689135</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>148.1602113181017</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>134.047167577218</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25840,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>207.1065456054738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>154.9643366525851</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26025,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>150.6932052766691</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>90.17202715685875</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448211.3155571702</v>
+        <v>595204.5073628824</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448211.3155571703</v>
+        <v>595204.5073628825</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>604448.0366923036</v>
+        <v>604448.0366923037</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>604448.0366923037</v>
+        <v>604448.0366923036</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448211.3155571703</v>
+        <v>595204.5073628824</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448211.3155571702</v>
+        <v>595204.5073628825</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>407709.8676078143</v>
       </c>
       <c r="C2" t="n">
-        <v>407709.8676078142</v>
+        <v>407709.8676078143</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078142</v>
+        <v>407709.8676078141</v>
       </c>
       <c r="E2" t="n">
-        <v>291733.7584019222</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="F2" t="n">
-        <v>291733.7584019222</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="G2" t="n">
+        <v>393421.2821962135</v>
+      </c>
+      <c r="H2" t="n">
+        <v>393421.2821962135</v>
+      </c>
+      <c r="I2" t="n">
         <v>393421.2821962134</v>
-      </c>
-      <c r="H2" t="n">
-        <v>393421.2821962133</v>
-      </c>
-      <c r="I2" t="n">
-        <v>393421.2821962135</v>
       </c>
       <c r="J2" t="n">
         <v>393421.2821962133</v>
@@ -26341,19 +26343,19 @@
         <v>393421.2821962133</v>
       </c>
       <c r="L2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="M2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962131</v>
       </c>
       <c r="N2" t="n">
-        <v>393421.2821962133</v>
+        <v>393421.2821962131</v>
       </c>
       <c r="O2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156913</v>
       </c>
       <c r="P2" t="n">
-        <v>291733.7584019221</v>
+        <v>387405.0806156913</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.9511534622</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.93696537385</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148130.4125690142</v>
+        <v>148130.4125690141</v>
       </c>
       <c r="C4" t="n">
         <v>148130.4125690142</v>
@@ -26424,28 +26426,28 @@
         <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="F4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="G4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
+        <v>15116.17365792743</v>
+      </c>
+      <c r="L4" t="n">
         <v>15116.17365792744</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15116.17365792743</v>
       </c>
       <c r="M4" t="n">
         <v>15116.17365792744</v>
@@ -26454,10 +26456,10 @@
         <v>15116.17365792743</v>
       </c>
       <c r="O4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
       <c r="P4" t="n">
-        <v>11188.4120876085</v>
+        <v>14883.79308177073</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756203</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5728.470586634707</v>
+        <v>5728.470586634823</v>
       </c>
       <c r="C6" t="n">
-        <v>192133.2040013719</v>
+        <v>192133.204001372</v>
       </c>
       <c r="D6" t="n">
-        <v>192133.2040013719</v>
+        <v>192133.2040013718</v>
       </c>
       <c r="E6" t="n">
-        <v>156055.9607832895</v>
+        <v>89030.52180932724</v>
       </c>
       <c r="F6" t="n">
-        <v>231386.9119367517</v>
+        <v>296462.8094258882</v>
       </c>
       <c r="G6" t="n">
-        <v>171664.6465383157</v>
+        <v>292929.4242663749</v>
       </c>
       <c r="H6" t="n">
+        <v>300555.0463498564</v>
+      </c>
+      <c r="I6" t="n">
+        <v>300555.0463498562</v>
+      </c>
+      <c r="J6" t="n">
+        <v>155021.3764150397</v>
+      </c>
+      <c r="K6" t="n">
         <v>300555.0463498561</v>
       </c>
-      <c r="I6" t="n">
-        <v>300555.0463498564</v>
-      </c>
-      <c r="J6" t="n">
-        <v>155021.3764150396</v>
-      </c>
-      <c r="K6" t="n">
-        <v>300555.0463498562</v>
-      </c>
       <c r="L6" t="n">
-        <v>300555.0463498562</v>
+        <v>300555.0463498561</v>
       </c>
       <c r="M6" t="n">
-        <v>237681.1093844824</v>
+        <v>127424.5551442164</v>
       </c>
       <c r="N6" t="n">
-        <v>300555.0463498562</v>
+        <v>300555.046349856</v>
       </c>
       <c r="O6" t="n">
-        <v>231386.9119367516</v>
+        <v>296462.8094258881</v>
       </c>
       <c r="P6" t="n">
-        <v>231386.9119367516</v>
+        <v>296462.8094258881</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099018</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943076</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.257036362955</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>226.2844334367879</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>371.3345117074836</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>12.03862242150552</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>58.60684960120378</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>64.11088921096768</v>
+        <v>196.1965332168822</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>90.96253340262257</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>158.4132499202489</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>191.7365308928241</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,13 +27861,13 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>273.7967702455326</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>112.7048068549771</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>163.0447290920667</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30289,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30396,7 +30398,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.06155854104185</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34781,25 +34783,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>75.42597529544652</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N3" t="n">
-        <v>245.6677613624789</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L5" t="n">
-        <v>415.0101894726381</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>238.1458997847902</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35036,7 +35038,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>73.06155854104185</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="L8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>556.2278131155941</v>
@@ -35188,13 +35190,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>527.4536661148496</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>440.0596680121639</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>742.9065724139469</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>998.3684688400139</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>808.5268812099018</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>808.5268812099018</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="M12" t="n">
-        <v>294.9982839840495</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>290.8492358086951</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>214.3617860522075</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>421.9809006205731</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35893,16 +35895,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>587.9026025434059</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>395.492576038645</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>205.0592278086264</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36367,16 +36369,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>540.8056218692396</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36844,10 +36846,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37081,10 +37083,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>643.7912868918553</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37315,19 +37317,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>961.47077187115</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>86.80031487885682</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37783,22 +37785,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>53.12346381202815</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>808.5268812099018</v>
+        <v>830.3174788543397</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>47.34186611575466</v>
       </c>
       <c r="P42" t="n">
-        <v>421.9809006205731</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>718.8757555570357</v>
       </c>
       <c r="L44" t="n">
-        <v>808.5268812099018</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099018</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099018</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>53.12346381202826</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>209.9034401867719</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099018</v>
+        <v>981.7058813107097</v>
       </c>
       <c r="O45" t="n">
-        <v>808.5268812099018</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1757955.720377984</v>
+        <v>1757237.730263126</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760742</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -667,10 +667,10 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>49.53842828501017</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>103.1531638478813</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -724,7 +724,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -834,10 +834,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>218.775754413495</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.8010630083367</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -901,13 +901,13 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -952,19 +952,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>348.0623415201528</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.0873641277763</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>118.9693540944499</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1141,19 +1141,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
@@ -1192,13 +1192,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>80.11775047948045</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>403.5070686661866</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1302,16 +1302,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>7.098427391118505</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>123.9086344760393</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>345.6355659138804</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>87.83885303493871</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3190970511839</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1609,10 +1609,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>314.6596914499</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>345.6355659138804</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1627,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>59.70406721933355</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>29.17438533485134</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -1909,7 +1909,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2010,10 +2010,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>30.32744450190079</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9811728869526</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2137,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2247,19 +2247,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>42.27007974286889</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5389288874897</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2478,13 +2478,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>111.1800590294273</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2493,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>218.7757544134943</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2715,19 +2715,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>8.209635605837841</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2778,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>135.7468035496482</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>154.5259717924262</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3189,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.15466974967032</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3426,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>112.2192622328896</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3480,13 +3480,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>66.03074830886753</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3517,13 +3517,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>166.1341091420802</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>238.0472340876699</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>205.3931121155061</v>
       </c>
       <c r="V43" t="n">
-        <v>71.78780711257758</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3994,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>186.9176635037728</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>49.8759779271652</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>187.21057685784</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>966.965586482338</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C2" t="n">
-        <v>540.0648564956382</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D2" t="n">
-        <v>520.8126397210425</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E2" t="n">
-        <v>94.83569986890006</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
         <v>44.79688341939484</v>
@@ -4333,25 +4333,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>957.7672188505812</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N2" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
-        <v>1768.825772958194</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
@@ -4360,22 +4360,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1745.630772103422</v>
+        <v>2120.716137464517</v>
       </c>
       <c r="V2" t="n">
-        <v>1388.141357229671</v>
+        <v>1763.226722590766</v>
       </c>
       <c r="W2" t="n">
-        <v>991.7500075300184</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X2" t="n">
-        <v>984.0704127381697</v>
+        <v>955.1153740588602</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.7735467334641</v>
+        <v>953.8185080541546</v>
       </c>
     </row>
     <row r="3">
@@ -4412,7 +4412,7 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L3" t="n">
         <v>595.1637600336857</v>
@@ -4421,13 +4421,13 @@
         <v>595.1637600336857</v>
       </c>
       <c r="N3" t="n">
-        <v>669.8354755761777</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O3" t="n">
-        <v>1220.501010560616</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P3" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
         <v>1771.166545545054</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
         <v>1807.311910299714</v>
@@ -4521,19 +4521,19 @@
         <v>2007.737591668685</v>
       </c>
       <c r="U4" t="n">
-        <v>1786.751981150003</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="V4" t="n">
-        <v>1786.751981150003</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>972.9074190595574</v>
+        <v>1376.947823099961</v>
       </c>
       <c r="C5" t="n">
-        <v>950.0470931132616</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D5" t="n">
-        <v>526.7544722982618</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8179364865234</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F5" t="n">
         <v>483.7341587163277</v>
@@ -4567,28 +4567,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1768.825772958194</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4600,19 +4600,19 @@
         <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W5" t="n">
-        <v>1607.594331807357</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="X5" t="n">
-        <v>1195.874332975104</v>
+        <v>1394.052649355793</v>
       </c>
       <c r="Y5" t="n">
-        <v>988.7153793106834</v>
+        <v>1392.755783351087</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>602.6104029955975</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N6" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O6" t="n">
-        <v>756.3555336978366</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.7643351504313</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>473.7917720293473</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>310.474999156118</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>144.2667933089716</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>144.2667933089716</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>144.2667933089716</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4755,22 +4755,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1981.571904688276</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1861.400839946408</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1579.689372554437</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1304.83696872695</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1062.273072172755</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>835.9303038624969</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1235.878926328994</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.766383608102</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,19 +4807,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>116.829168004879</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>116.829168004879</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>667.4947029893171</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1218.160237973755</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1218.160237973755</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P8" t="n">
         <v>1768.825772958194</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>1664.703751417078</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1664.703751417078</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.983752584825</v>
+        <v>479.799815760546</v>
       </c>
       <c r="Y8" t="n">
-        <v>1251.68688658012</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N9" t="n">
-        <v>1417.526784297715</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O9" t="n">
-        <v>1417.526784297715</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>962.9877020259423</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C10" t="n">
-        <v>791.0151389048583</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D10" t="n">
-        <v>627.698366031629</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E10" t="n">
-        <v>461.4901601844825</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1934.533291375449</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1654.348842875753</v>
+        <v>2099.751015617891</v>
       </c>
       <c r="V10" t="n">
-        <v>1654.348842875753</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W10" t="n">
-        <v>1379.496439048266</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X10" t="n">
-        <v>1379.496439048266</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y10" t="n">
-        <v>1153.153670738008</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H11" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0769448789901</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1029.701992498267</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2018.08677664988</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>2994.337835136581</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3839.482485287394</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
         <v>5003.847243949504</v>
@@ -5126,13 +5126,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>819.4496289866299</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>819.4496289866299</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.7645754595</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
         <v>1908.7645754595</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1183.258067403227</v>
+        <v>604.3404589283496</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.285504282143</v>
+        <v>432.3678958072655</v>
       </c>
       <c r="D13" t="n">
-        <v>847.9687314089136</v>
+        <v>432.3678958072655</v>
       </c>
       <c r="E13" t="n">
-        <v>681.7605255617672</v>
+        <v>432.3678958072655</v>
       </c>
       <c r="F13" t="n">
-        <v>509.8987513363276</v>
+        <v>432.3678958072655</v>
       </c>
       <c r="G13" t="n">
         <v>343.6417816305598</v>
@@ -5238,13 +5238,13 @@
         <v>1538.265496332355</v>
       </c>
       <c r="W13" t="n">
-        <v>1425.821963957422</v>
+        <v>1263.413092504868</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.258067403227</v>
+        <v>1020.849195950673</v>
       </c>
       <c r="Y13" t="n">
-        <v>1183.258067403227</v>
+        <v>794.5064276404152</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2429.413071721394</v>
       </c>
       <c r="C14" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D14" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E14" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F14" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G14" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H14" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I14" t="n">
         <v>100.0769448789901</v>
@@ -5281,25 +5281,25 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>3372.842611220921</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O14" t="n">
-        <v>4217.987261371733</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563419</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067602</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R14" t="n">
         <v>5003.847243949504</v>
@@ -5360,25 +5360,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>690.5618714473296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>690.5618714473296</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N15" t="n">
-        <v>690.5618714473296</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="O15" t="n">
-        <v>690.5618714473296</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1362.599788512017</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1826.745265374797</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>867.4892357902974</v>
+        <v>538.0262821069446</v>
       </c>
       <c r="C16" t="n">
-        <v>867.4892357902974</v>
+        <v>366.0537189858605</v>
       </c>
       <c r="D16" t="n">
-        <v>704.1724629170681</v>
+        <v>366.0537189858605</v>
       </c>
       <c r="E16" t="n">
-        <v>537.9642570699216</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="F16" t="n">
-        <v>366.102482844482</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="G16" t="n">
         <v>199.8455131387141</v>
@@ -5463,25 +5463,25 @@
         <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.451358979291</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T16" t="n">
-        <v>2233.451358979291</v>
+        <v>2033.847235402617</v>
       </c>
       <c r="U16" t="n">
-        <v>1953.266910479596</v>
+        <v>1753.662786902921</v>
       </c>
       <c r="V16" t="n">
-        <v>1671.555443087625</v>
+        <v>1471.95131951095</v>
       </c>
       <c r="W16" t="n">
-        <v>1396.703039260138</v>
+        <v>1197.098915683463</v>
       </c>
       <c r="X16" t="n">
-        <v>1154.139142705943</v>
+        <v>954.5350191292682</v>
       </c>
       <c r="Y16" t="n">
-        <v>927.7963743956848</v>
+        <v>728.1922508190103</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5557,10 +5557,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>381.4468456473314</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>772.98449592559</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>772.98449592559</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="M18" t="n">
-        <v>1828.971033901635</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="N18" t="n">
-        <v>1828.971033901635</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.7245472657505</v>
+        <v>739.8561742104578</v>
       </c>
       <c r="C19" t="n">
-        <v>380.7519841446665</v>
+        <v>567.8836110893737</v>
       </c>
       <c r="D19" t="n">
-        <v>217.4352112714372</v>
+        <v>404.5668382161444</v>
       </c>
       <c r="E19" t="n">
-        <v>217.4352112714372</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5700,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1398.928807786976</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1156.364911232781</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.8905159778161</v>
+        <v>930.0221429225235</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5752,16 +5752,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5788,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5843,7 +5843,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>1191.617659878699</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O21" t="n">
         <v>1194.79262694784</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8002552472883</v>
+        <v>818.4078435766714</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>646.4352804555874</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>483.1185075823581</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>483.1185075823581</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>311.2567333569185</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3027134058285</v>
+        <v>144.9997636511507</v>
       </c>
       <c r="H22" t="n">
-        <v>102.3027134058285</v>
+        <v>144.9997636511507</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>1036.530120513549</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="X22" t="n">
-        <v>793.966223959354</v>
+        <v>1234.916580598995</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.966223959354</v>
+        <v>1008.573812288737</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>3114.325629236558</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>3959.47027938737</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
-        <v>4667.749558545297</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6071,16 +6071,16 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3442790273841</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M24" t="n">
-        <v>475.3442790273841</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N24" t="n">
-        <v>475.3442790273841</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
         <v>1364.825557038856</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>552.7245472657505</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>552.7245472657505</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>440.421457337036</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5596831115964</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6177,22 +6177,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6229,10 +6229,10 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M26" t="n">
         <v>2011.818868109901</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
         <v>1828.971033901635</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>431.8276921262043</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X28" t="n">
-        <v>848.3364291485279</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y28" t="n">
-        <v>621.99366083827</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="29">
@@ -6469,13 +6469,13 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1180.414480198223</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>2184.700581617281</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
         <v>3833.214576747414</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
         <v>1828.971033901635</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.8870954416583</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>587.9145323205743</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>424.597759447345</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>258.3895536001985</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.8870954416583</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6712,16 +6712,16 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,25 +6776,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
         <v>1364.825557038856</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>163.0650060822632</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>163.0650060822632</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7031,7 +7031,7 @@
         <v>971.931772215671</v>
       </c>
       <c r="O36" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P36" t="n">
         <v>1364.825557038856</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.604840768015</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="C37" t="n">
-        <v>481.632277646931</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="D37" t="n">
-        <v>481.632277646931</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E37" t="n">
-        <v>315.4240717997845</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F37" t="n">
-        <v>315.4240717997845</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G37" t="n">
         <v>202.0712816655526</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1312.677474344533</v>
+        <v>1193.609090794985</v>
       </c>
       <c r="X37" t="n">
-        <v>1070.113577790339</v>
+        <v>951.0451942407906</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7708094800807</v>
+        <v>724.7024259305326</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>609.4538236255814</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>437.4812605044974</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7362,22 +7362,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.090328421558</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1825.090328421558</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V40" t="n">
-        <v>1543.378861029587</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W40" t="n">
-        <v>1268.5264572021</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="X40" t="n">
-        <v>1025.962560647905</v>
+        <v>1579.63883569697</v>
       </c>
       <c r="Y40" t="n">
-        <v>799.6197923376471</v>
+        <v>1353.296067386712</v>
       </c>
     </row>
     <row r="41">
@@ -7420,19 +7420,19 @@
         <v>1745.210300473766</v>
       </c>
       <c r="M41" t="n">
-        <v>2749.496401892824</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N41" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4547.761764445321</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>4547.761764445321</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949504</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
         <v>5003.847243949504</v>
@@ -7487,28 +7487,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K42" t="n">
-        <v>690.5618714473296</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L42" t="n">
-        <v>690.5618714473296</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="M42" t="n">
-        <v>690.5618714473296</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="N42" t="n">
-        <v>1779.8768179202</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O42" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P42" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
         <v>1826.745265374797</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3906.615339060613</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C43" t="n">
-        <v>3734.642775939529</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D43" t="n">
-        <v>3571.3260030663</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>3405.117797219153</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>3233.256022993713</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>3066.999053287946</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>2923.2027847961</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>5003.847243949504</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T43" t="n">
-        <v>4760.507896175404</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U43" t="n">
-        <v>4480.323447675709</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V43" t="n">
-        <v>4407.810511198358</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W43" t="n">
-        <v>4132.95810737087</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X43" t="n">
-        <v>4132.95810737087</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y43" t="n">
-        <v>3906.615339060613</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>323.7795368464006</v>
       </c>
       <c r="H44" t="n">
         <v>134.9738161355189</v>
@@ -7651,16 +7651,16 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K44" t="n">
-        <v>811.7639428804554</v>
+        <v>815.5852528544891</v>
       </c>
       <c r="L44" t="n">
-        <v>1741.388990499732</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M44" t="n">
-        <v>2745.67509191879</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N44" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
         <v>3721.926150405491</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3195.159613368996</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>3195.159613368996</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K45" t="n">
-        <v>3195.159613368996</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L45" t="n">
-        <v>4031.958421451902</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="M45" t="n">
-        <v>4031.958421451902</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="N45" t="n">
-        <v>5003.847243949504</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="O45" t="n">
-        <v>5003.847243949504</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3571.3260030663</v>
+        <v>494.2910579095189</v>
       </c>
       <c r="C46" t="n">
-        <v>3571.3260030663</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="D46" t="n">
-        <v>3571.3260030663</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="E46" t="n">
-        <v>3405.117797219153</v>
+        <v>322.3184947884349</v>
       </c>
       <c r="F46" t="n">
-        <v>3233.256022993713</v>
+        <v>150.4567205629953</v>
       </c>
       <c r="G46" t="n">
-        <v>3066.999053287946</v>
+        <v>150.4567205629953</v>
       </c>
       <c r="H46" t="n">
-        <v>2923.2027847961</v>
+        <v>150.4567205629953</v>
       </c>
       <c r="I46" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>4956.808630636678</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>4786.673583155813</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T46" t="n">
-        <v>4543.334235381712</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U46" t="n">
-        <v>4354.232642596015</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V46" t="n">
-        <v>4072.521175204045</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W46" t="n">
-        <v>3797.668771376558</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X46" t="n">
-        <v>3797.668771376558</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y46" t="n">
-        <v>3571.3260030663</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>300.4142109955939</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
@@ -8002,7 +8002,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>96.76900350898819</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>185.9918631203545</v>
       </c>
       <c r="P3" t="n">
         <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>450.7747902674474</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>300.4142109955939</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L6" t="n">
-        <v>177.8131985346731</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>108.8261593358512</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>110.6369203512731</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8531,25 +8531,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
         <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>461.8305092169925</v>
+        <v>180.0446044646217</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1035.799731739446</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,16 +8774,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>749.1541615704315</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8929,7 +8929,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
@@ -8944,13 +8944,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>251.9371478624388</v>
+        <v>108.6376593882833</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P15" t="n">
-        <v>700.5970200580485</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9175,16 +9175,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>625.182225377852</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9242,22 +9242,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>417.8918098719783</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>942.3124318571035</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9266,7 +9266,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,10 +9409,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>304.4845953330648</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9491,10 +9491,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O21" t="n">
-        <v>26.37892716579976</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>745.2028786174529</v>
@@ -9646,10 +9646,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.2860653765454</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>117.3609790173131</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
@@ -9731,7 +9731,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
@@ -9877,13 +9877,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -9965,16 +9965,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10117,16 +10117,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>716.4444307130257</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -10202,16 +10202,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>106.5207073584907</v>
@@ -10360,19 +10360,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>488.0298379845275</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,13 +10439,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q33" t="n">
         <v>491.5808533018869</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>420.03429863453</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q36" t="n">
         <v>491.5808533018869</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,10 +10831,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10843,10 +10843,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10913,19 +10913,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>194.3202945097473</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>867.7084382103637</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265373</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>70.51375583797689</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11299,19 +11299,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>754.6403563518451</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>194.3202945097473</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1003.048909524251</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171364</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>76.75554697377147</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>160.7847827380282</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>107.9720312369328</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.5602418056114</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>211.7315689615077</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>134.2186792867742</v>
       </c>
       <c r="F19" t="n">
-        <v>56.16198359623262</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23910,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>56.50080283425789</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>50.56495090172237</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>50.50354611506967</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>53.32812537571778</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>153.4739695386592</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>15.61718469075893</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25095,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>38.61621282745647</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25326,7 +25326,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>52.37513777582056</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>206.0731314803446</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>22.13019988286476</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.858720208689135</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>71.98949189919261</v>
       </c>
       <c r="V43" t="n">
-        <v>207.1065456054738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>48.89490464996159</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>90.17202715685875</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>595204.5073628825</v>
+        <v>595204.5073628824</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>604448.0366923036</v>
+        <v>604448.0366923037</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>604448.0366923037</v>
+        <v>604448.0366923036</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>604448.0366923036</v>
+        <v>604448.0366923037</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>595204.5073628825</v>
+        <v>595204.5073628824</v>
       </c>
     </row>
   </sheetData>
@@ -26316,25 +26316,25 @@
         <v>407709.8676078143</v>
       </c>
       <c r="C2" t="n">
-        <v>407709.8676078143</v>
+        <v>407709.8676078144</v>
       </c>
       <c r="D2" t="n">
-        <v>407709.8676078141</v>
+        <v>407709.8676078142</v>
       </c>
       <c r="E2" t="n">
-        <v>387405.0806156914</v>
+        <v>387405.0806156915</v>
       </c>
       <c r="F2" t="n">
-        <v>387405.0806156914</v>
+        <v>387405.0806156915</v>
       </c>
       <c r="G2" t="n">
-        <v>393421.2821962135</v>
+        <v>393421.2821962134</v>
       </c>
       <c r="H2" t="n">
-        <v>393421.2821962135</v>
+        <v>393421.2821962134</v>
       </c>
       <c r="I2" t="n">
-        <v>393421.2821962134</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="J2" t="n">
         <v>393421.2821962133</v>
@@ -26346,16 +26346,16 @@
         <v>393421.2821962133</v>
       </c>
       <c r="M2" t="n">
-        <v>393421.2821962131</v>
+        <v>393421.2821962135</v>
       </c>
       <c r="N2" t="n">
-        <v>393421.2821962131</v>
+        <v>393421.2821962133</v>
       </c>
       <c r="O2" t="n">
-        <v>387405.0806156913</v>
+        <v>387405.0806156914</v>
       </c>
       <c r="P2" t="n">
-        <v>387405.0806156913</v>
+        <v>387405.0806156914</v>
       </c>
     </row>
     <row r="3">
@@ -26432,10 +26432,10 @@
         <v>14883.79308177073</v>
       </c>
       <c r="G4" t="n">
+        <v>15116.17365792744</v>
+      </c>
+      <c r="H4" t="n">
         <v>15116.17365792743</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15116.17365792744</v>
       </c>
       <c r="I4" t="n">
         <v>15116.17365792744</v>
@@ -26453,7 +26453,7 @@
         <v>15116.17365792744</v>
       </c>
       <c r="N4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="O4" t="n">
         <v>14883.79308177073</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5728.470586634823</v>
+        <v>5728.470586634765</v>
       </c>
       <c r="C6" t="n">
-        <v>192133.204001372</v>
+        <v>192133.2040013721</v>
       </c>
       <c r="D6" t="n">
-        <v>192133.2040013718</v>
+        <v>192133.2040013719</v>
       </c>
       <c r="E6" t="n">
-        <v>89030.52180932724</v>
+        <v>88958.00471292692</v>
       </c>
       <c r="F6" t="n">
-        <v>296462.8094258882</v>
+        <v>296390.2923294879</v>
       </c>
       <c r="G6" t="n">
-        <v>292929.4242663749</v>
+        <v>292878.3936041906</v>
       </c>
       <c r="H6" t="n">
-        <v>300555.0463498564</v>
+        <v>300504.015687672</v>
       </c>
       <c r="I6" t="n">
-        <v>300555.0463498562</v>
+        <v>300504.0156876718</v>
       </c>
       <c r="J6" t="n">
-        <v>155021.3764150397</v>
+        <v>154970.3457528554</v>
       </c>
       <c r="K6" t="n">
-        <v>300555.0463498561</v>
+        <v>300504.0156876719</v>
       </c>
       <c r="L6" t="n">
-        <v>300555.0463498561</v>
+        <v>300504.0156876719</v>
       </c>
       <c r="M6" t="n">
-        <v>127424.5551442164</v>
+        <v>127373.5244820325</v>
       </c>
       <c r="N6" t="n">
-        <v>300555.046349856</v>
+        <v>300504.0156876718</v>
       </c>
       <c r="O6" t="n">
-        <v>296462.8094258881</v>
+        <v>296390.2923294878</v>
       </c>
       <c r="P6" t="n">
-        <v>296462.8094258881</v>
+        <v>296390.2923294878</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>371.3345117074836</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27432,10 +27432,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>152.6181964616705</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>58.60684960120378</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>91.09328970971464</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,13 +27621,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>59.54045732377745</v>
       </c>
       <c r="Y5" t="n">
-        <v>196.1965332168822</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,13 +27827,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>158.4132499202489</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>273.7967702455326</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>4.095730177743633</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>163.0447290920667</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>153.4739695386594</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,19 +34701,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M2" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>263.0232516395698</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34722,7 +34722,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>75.42597529544652</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="O5" t="n">
-        <v>263.0232516395698</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>158.2737632597931</v>
+      </c>
+      <c r="L6" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L6" t="n">
-        <v>155.2981118204435</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>73.06155854104185</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>73.06155854104179</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>440.0596680121639</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>998.3684688400139</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
@@ -35664,13 +35664,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>214.3617860522075</v>
+        <v>71.06229757805201</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P15" t="n">
-        <v>678.8261788532199</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35895,16 +35895,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>587.9026025434059</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35962,22 +35962,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>395.492576038645</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>920.9694036435619</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,10 +36129,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>267.053332433633</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36211,10 +36211,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O21" t="n">
-        <v>3.207037443577533</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>723.4320374126243</v>
@@ -36366,10 +36366,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>333.1613907719473</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>94.84589230308353</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,7 +36451,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,16 +36685,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36837,16 +36837,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>679.0534713570016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>82.84778796434657</v>
@@ -37080,19 +37080,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>451.9051633799294</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,13 +37159,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q33" t="n">
         <v>468.8338150129084</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37399,10 +37399,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>396.8624089123078</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>468.8338150129084</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,10 +37551,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37563,10 +37563,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>156.8890316103155</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>830.3174788543397</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>47.34186611575466</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>82.84778796434657</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>718.8757555570357</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>156.8890316103155</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>981.7058813107097</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>396.8624089123077</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
